--- a/Documents/Audit Query.xlsx
+++ b/Documents/Audit Query.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Order ID</t>
   </si>
@@ -30,29 +30,62 @@
     <t>Number of times transaction performed</t>
   </si>
   <si>
-    <t>order_PI0uRO8EVYVZ3Q</t>
-  </si>
-  <si>
     <t>Captured</t>
   </si>
   <si>
     <t>PENDING</t>
   </si>
   <si>
-    <t>order_PI0zo1PTYrDrwi</t>
+    <t>order_PIJUiOzkOp5aQS</t>
+  </si>
+  <si>
+    <t>order_PIJdricO2MteVo</t>
+  </si>
+  <si>
+    <t>order_PIJg0ZmwwLxU5e</t>
+  </si>
+  <si>
+    <t>order_PIJiDmulaBtJK7</t>
+  </si>
+  <si>
+    <t>order_PIJkSdIfg9cppu</t>
+  </si>
+  <si>
+    <t>order_PIJvvUxIzXc2fZ</t>
+  </si>
+  <si>
+    <t>order_PIK0Z5a8PU8D45</t>
+  </si>
+  <si>
+    <t>order_PIK21qc7OfZQTN</t>
+  </si>
+  <si>
+    <t>order_PIJmv8Mssh9hLo</t>
+  </si>
+  <si>
+    <t>order_PIJqxoiyxVPENB</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -96,10 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -423,11 +457,11 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>280</v>
@@ -437,11 +471,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>280</v>
@@ -450,8 +484,121 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>560</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>560</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>560</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>280</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>280</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>560</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>280</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>560</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/Audit Query.xlsx
+++ b/Documents/Audit Query.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Order ID</t>
   </si>
@@ -33,47 +33,65 @@
     <t>Captured</t>
   </si>
   <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>order_PIJUiOzkOp5aQS</t>
-  </si>
-  <si>
-    <t>order_PIJdricO2MteVo</t>
-  </si>
-  <si>
-    <t>order_PIJg0ZmwwLxU5e</t>
-  </si>
-  <si>
-    <t>order_PIJiDmulaBtJK7</t>
-  </si>
-  <si>
-    <t>order_PIJkSdIfg9cppu</t>
-  </si>
-  <si>
-    <t>order_PIJvvUxIzXc2fZ</t>
-  </si>
-  <si>
-    <t>order_PIK0Z5a8PU8D45</t>
-  </si>
-  <si>
-    <t>order_PIK21qc7OfZQTN</t>
-  </si>
-  <si>
-    <t>order_PIJmv8Mssh9hLo</t>
-  </si>
-  <si>
-    <t>order_PIJqxoiyxVPENB</t>
-  </si>
-  <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>order_PIJbt9Igr3bAbm</t>
+  </si>
+  <si>
+    <t>order_PIjOcoReSoo4rn</t>
+  </si>
+  <si>
+    <t>order_PIjQXJAKM0H3jo</t>
+  </si>
+  <si>
+    <t>order_PIjSgHjPZbHljC</t>
+  </si>
+  <si>
+    <t>order_PIjWEEK8Jh4Sh5</t>
+  </si>
+  <si>
+    <t>order_PIjLtqnxg23RlX</t>
+  </si>
+  <si>
+    <t>order_PIjXtafsS5tA4O</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Request URL</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Hash Value</t>
+  </si>
+  <si>
+    <t>https://wbsfda.devserv.in</t>
+  </si>
+  <si>
+    <t>home.php</t>
+  </si>
+  <si>
+    <t>69a34ea0992b9893c77f1b3669785d1e2b63989818f4765c2013a13fe63bd5bf</t>
+  </si>
+  <si>
+    <t>https://wbsfda.devserv.in/safari-booking-payment-success</t>
+  </si>
+  <si>
+    <t>Safari_booking.php</t>
+  </si>
+  <si>
+    <t>bcbd8fa886fd7f8507bfb4f0c7f23912c15c12b8e2d22cd3d9416392701426ce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +103,13 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -126,16 +151,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,17 +459,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="A12" sqref="A12:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -489,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -503,10 +534,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -517,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>560</v>
@@ -531,10 +562,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -545,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>280</v>
@@ -554,51 +585,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>560</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>280</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2">
-        <v>560</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1" display="https://wbsfda.devserv.in/"/>
+    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="A14" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
